--- a/data/pca/factorExposure/factorExposure_2016-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01489978490323668</v>
+        <v>-0.01371609253857293</v>
       </c>
       <c r="C2">
-        <v>0.03750736941924265</v>
+        <v>0.03936808705359124</v>
       </c>
       <c r="D2">
-        <v>-0.02956556079468611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03217981666412539</v>
+      </c>
+      <c r="E2">
+        <v>0.0530591964652005</v>
+      </c>
+      <c r="F2">
+        <v>-0.01715441653229015</v>
+      </c>
+      <c r="G2">
+        <v>-0.1042683683847619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06360660682579877</v>
+        <v>-0.03601623396771516</v>
       </c>
       <c r="C3">
-        <v>0.1066302982203312</v>
+        <v>0.09301261759265077</v>
       </c>
       <c r="D3">
-        <v>-0.01768321098497096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01893510002479656</v>
+      </c>
+      <c r="E3">
+        <v>0.1003597945949769</v>
+      </c>
+      <c r="F3">
+        <v>-0.02745258231365792</v>
+      </c>
+      <c r="G3">
+        <v>-0.1095289946277704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06075051961352192</v>
+        <v>-0.05493326450085829</v>
       </c>
       <c r="C4">
-        <v>0.06103970622230438</v>
+        <v>0.05913542691648609</v>
       </c>
       <c r="D4">
-        <v>-0.02421896833992742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02690561201411944</v>
+      </c>
+      <c r="E4">
+        <v>0.05226254247761104</v>
+      </c>
+      <c r="F4">
+        <v>-0.00684338368901817</v>
+      </c>
+      <c r="G4">
+        <v>-0.09209668573305728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01972408073236618</v>
+        <v>-0.0341153239952765</v>
       </c>
       <c r="C6">
-        <v>0.0533852847762037</v>
+        <v>0.04264484973758708</v>
       </c>
       <c r="D6">
-        <v>-0.02125827455522549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01986089008609385</v>
+      </c>
+      <c r="E6">
+        <v>0.05905155493235494</v>
+      </c>
+      <c r="F6">
+        <v>-0.009703065035830898</v>
+      </c>
+      <c r="G6">
+        <v>-0.08178101699887595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01719083541892256</v>
+        <v>-0.02039168616104605</v>
       </c>
       <c r="C7">
-        <v>0.04021961973869206</v>
+        <v>0.0334562467010382</v>
       </c>
       <c r="D7">
-        <v>-0.01639419560007828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0156682576073209</v>
+      </c>
+      <c r="E7">
+        <v>0.02616247303799146</v>
+      </c>
+      <c r="F7">
+        <v>0.0007626925010533175</v>
+      </c>
+      <c r="G7">
+        <v>-0.1218742122042222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002576342260331683</v>
+        <v>-0.004381723276274944</v>
       </c>
       <c r="C8">
-        <v>0.01059981159369823</v>
+        <v>0.01922913302839648</v>
       </c>
       <c r="D8">
-        <v>-0.003876480474084854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004864140733248787</v>
+      </c>
+      <c r="E8">
+        <v>0.0370756450660797</v>
+      </c>
+      <c r="F8">
+        <v>-0.006458332100802193</v>
+      </c>
+      <c r="G8">
+        <v>-0.06860954966793717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02623266698883774</v>
+        <v>-0.03371240791177658</v>
       </c>
       <c r="C9">
-        <v>0.04153803070188471</v>
+        <v>0.04423601362759359</v>
       </c>
       <c r="D9">
-        <v>-0.01730111117260264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01771809285591906</v>
+      </c>
+      <c r="E9">
+        <v>0.03633427198568859</v>
+      </c>
+      <c r="F9">
+        <v>-0.004874696002949434</v>
+      </c>
+      <c r="G9">
+        <v>-0.09854230437621049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08864201369948575</v>
+        <v>-0.09779529041982986</v>
       </c>
       <c r="C10">
-        <v>-0.1812475893385198</v>
+        <v>-0.1913081767083112</v>
       </c>
       <c r="D10">
-        <v>0.04884151770776934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01514419433436795</v>
+      </c>
+      <c r="E10">
+        <v>0.01627322769083321</v>
+      </c>
+      <c r="F10">
+        <v>-0.02919295386804249</v>
+      </c>
+      <c r="G10">
+        <v>-0.05188951908495364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03674565624917911</v>
+        <v>-0.03528681442123963</v>
       </c>
       <c r="C11">
-        <v>0.05547968400912145</v>
+        <v>0.05152756915139357</v>
       </c>
       <c r="D11">
-        <v>-0.004525970164361034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003061669826698067</v>
+      </c>
+      <c r="E11">
+        <v>0.02677157329288646</v>
+      </c>
+      <c r="F11">
+        <v>0.01336053654108478</v>
+      </c>
+      <c r="G11">
+        <v>-0.07437664460481898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03511126019878921</v>
+        <v>-0.03666504073511246</v>
       </c>
       <c r="C12">
-        <v>0.04701083641702845</v>
+        <v>0.04589591134168705</v>
       </c>
       <c r="D12">
-        <v>-0.008498326013777828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007369460826904922</v>
+      </c>
+      <c r="E12">
+        <v>0.0179641833465558</v>
+      </c>
+      <c r="F12">
+        <v>0.004427161367679251</v>
+      </c>
+      <c r="G12">
+        <v>-0.07309398891284351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.008478260842603107</v>
+        <v>-0.01041166208686749</v>
       </c>
       <c r="C13">
-        <v>0.03059976207611393</v>
+        <v>0.0338421846532336</v>
       </c>
       <c r="D13">
-        <v>-0.02675964328239546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03016210708715776</v>
+      </c>
+      <c r="E13">
+        <v>0.06151769639199193</v>
+      </c>
+      <c r="F13">
+        <v>-0.02026167189435613</v>
+      </c>
+      <c r="G13">
+        <v>-0.1316452489593459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007285954969527395</v>
+        <v>-0.008386742972743329</v>
       </c>
       <c r="C14">
-        <v>0.02777125287730888</v>
+        <v>0.02435863094383395</v>
       </c>
       <c r="D14">
-        <v>-0.01134312260523775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01199627384090476</v>
+      </c>
+      <c r="E14">
+        <v>0.02163613981185146</v>
+      </c>
+      <c r="F14">
+        <v>-0.008720376063365811</v>
+      </c>
+      <c r="G14">
+        <v>-0.1141014677782221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0316734044442116</v>
+        <v>-0.03422697608693596</v>
       </c>
       <c r="C16">
-        <v>0.04076789314212552</v>
+        <v>0.04390502366282287</v>
       </c>
       <c r="D16">
-        <v>-0.002930412577397346</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.00278139951330238</v>
+      </c>
+      <c r="E16">
+        <v>0.02349201653904359</v>
+      </c>
+      <c r="F16">
+        <v>-0.00405670808520143</v>
+      </c>
+      <c r="G16">
+        <v>-0.08108931647489531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02629204770381728</v>
+        <v>-0.01736327638383682</v>
       </c>
       <c r="C19">
-        <v>0.05311639338758149</v>
+        <v>0.04783907128405755</v>
       </c>
       <c r="D19">
-        <v>-0.01870270332370967</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.0230723244904531</v>
+      </c>
+      <c r="E19">
+        <v>0.09906835719812443</v>
+      </c>
+      <c r="F19">
+        <v>-0.02075814427483147</v>
+      </c>
+      <c r="G19">
+        <v>-0.1361012846294244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0114537312056809</v>
+        <v>-0.01479659499359378</v>
       </c>
       <c r="C20">
-        <v>0.04249467918662666</v>
+        <v>0.03642654926362016</v>
       </c>
       <c r="D20">
-        <v>-0.01685233199993296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01619914781975091</v>
+      </c>
+      <c r="E20">
+        <v>0.04580171735300181</v>
+      </c>
+      <c r="F20">
+        <v>-0.03033909211030093</v>
+      </c>
+      <c r="G20">
+        <v>-0.1059738467246405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.003740331261492307</v>
+        <v>-0.006146198530810002</v>
       </c>
       <c r="C21">
-        <v>0.03308518235989049</v>
+        <v>0.03261887555012393</v>
       </c>
       <c r="D21">
-        <v>-0.01922712028516396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02247464017798501</v>
+      </c>
+      <c r="E21">
+        <v>0.06565197777296014</v>
+      </c>
+      <c r="F21">
+        <v>-0.02184860015822128</v>
+      </c>
+      <c r="G21">
+        <v>-0.149299542146896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0008236267805526097</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.007674199656812824</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00299583174454253</v>
+      </c>
+      <c r="E22">
+        <v>0.02153682220909016</v>
+      </c>
+      <c r="F22">
+        <v>0.002473008665516304</v>
+      </c>
+      <c r="G22">
+        <v>-0.005171888992409663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0008226231892921608</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.007612629959728353</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002983830969817997</v>
+      </c>
+      <c r="E23">
+        <v>0.02142064814970508</v>
+      </c>
+      <c r="F23">
+        <v>0.002175016460244396</v>
+      </c>
+      <c r="G23">
+        <v>-0.005044209992232315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02435021577116183</v>
+        <v>-0.0299895379571576</v>
       </c>
       <c r="C24">
-        <v>0.04728372466594781</v>
+        <v>0.04927981251583041</v>
       </c>
       <c r="D24">
-        <v>-0.009851159326658886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007971328624515521</v>
+      </c>
+      <c r="E24">
+        <v>0.02220476783361973</v>
+      </c>
+      <c r="F24">
+        <v>0.005534390767081579</v>
+      </c>
+      <c r="G24">
+        <v>-0.08138971275571395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04338919133101926</v>
+        <v>-0.04248817539338072</v>
       </c>
       <c r="C25">
-        <v>0.05501334957048864</v>
+        <v>0.05587216721762131</v>
       </c>
       <c r="D25">
-        <v>-0.01352638563124903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01200388595570927</v>
+      </c>
+      <c r="E25">
+        <v>0.01435521802742294</v>
+      </c>
+      <c r="F25">
+        <v>0.004249122856761356</v>
+      </c>
+      <c r="G25">
+        <v>-0.08823605172738308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.003338568138840173</v>
+        <v>-0.01418120372747976</v>
       </c>
       <c r="C26">
-        <v>0.007154964268350923</v>
+        <v>0.01019361223423338</v>
       </c>
       <c r="D26">
-        <v>-0.02351516137516338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02472978552741802</v>
+      </c>
+      <c r="E26">
+        <v>0.01533915218209539</v>
+      </c>
+      <c r="F26">
+        <v>-0.007757823370861806</v>
+      </c>
+      <c r="G26">
+        <v>-0.08488079089304136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.107798610981901</v>
+        <v>-0.1273328406170244</v>
       </c>
       <c r="C28">
-        <v>-0.216579921332581</v>
+        <v>-0.2432140327684769</v>
       </c>
       <c r="D28">
-        <v>0.04378238102310234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006514796927509235</v>
+      </c>
+      <c r="E28">
+        <v>-0.002120514317494004</v>
+      </c>
+      <c r="F28">
+        <v>-0.03055483916820013</v>
+      </c>
+      <c r="G28">
+        <v>-0.05239123553847578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01309213337944428</v>
+        <v>-0.007621635055095245</v>
       </c>
       <c r="C29">
-        <v>0.02125980671646821</v>
+        <v>0.01971919645599252</v>
       </c>
       <c r="D29">
-        <v>-0.008894796483615207</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01070494887714451</v>
+      </c>
+      <c r="E29">
+        <v>0.01314356118100006</v>
+      </c>
+      <c r="F29">
+        <v>-0.01185705353533039</v>
+      </c>
+      <c r="G29">
+        <v>-0.1016970747592621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03272586978640624</v>
+        <v>-0.03817884411379326</v>
       </c>
       <c r="C30">
-        <v>0.07229162578774702</v>
+        <v>0.06389333657043395</v>
       </c>
       <c r="D30">
-        <v>-0.03216964571981702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0323187617346383</v>
+      </c>
+      <c r="E30">
+        <v>0.08286918347924288</v>
+      </c>
+      <c r="F30">
+        <v>0.01693250637338194</v>
+      </c>
+      <c r="G30">
+        <v>-0.118983556054289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0389379342763784</v>
+        <v>-0.05418116422238822</v>
       </c>
       <c r="C31">
-        <v>0.02825482742201904</v>
+        <v>0.03858967083124423</v>
       </c>
       <c r="D31">
-        <v>-0.004403957677526016</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004527292262737633</v>
+      </c>
+      <c r="E31">
+        <v>0.001461615286441351</v>
+      </c>
+      <c r="F31">
+        <v>-0.034879698162086</v>
+      </c>
+      <c r="G31">
+        <v>-0.09421789504837373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.009691997751412187</v>
+        <v>-0.00199076187188913</v>
       </c>
       <c r="C32">
-        <v>0.03689277960628524</v>
+        <v>0.01921269253148305</v>
       </c>
       <c r="D32">
-        <v>0.002201247693511481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0007029953390609319</v>
+      </c>
+      <c r="E32">
+        <v>0.0539529346054721</v>
+      </c>
+      <c r="F32">
+        <v>0.0186488353473067</v>
+      </c>
+      <c r="G32">
+        <v>-0.07189918273477089</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02698671273275093</v>
+        <v>-0.02596379338788792</v>
       </c>
       <c r="C33">
-        <v>0.05317327350784398</v>
+        <v>0.0475781592314954</v>
       </c>
       <c r="D33">
-        <v>-0.01667798026963552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01878447543263838</v>
+      </c>
+      <c r="E33">
+        <v>0.06732525183815105</v>
+      </c>
+      <c r="F33">
+        <v>-0.003262157225224785</v>
+      </c>
+      <c r="G33">
+        <v>-0.1560044657143274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05035601573281556</v>
+        <v>-0.04031151464661576</v>
       </c>
       <c r="C34">
-        <v>0.05563825810888971</v>
+        <v>0.05799226194001333</v>
       </c>
       <c r="D34">
-        <v>0.003868792022668232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003696262537741544</v>
+      </c>
+      <c r="E34">
+        <v>0.02106754748303483</v>
+      </c>
+      <c r="F34">
+        <v>0.01849035785868988</v>
+      </c>
+      <c r="G34">
+        <v>-0.07716227981390679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008649023174061563</v>
+        <v>-0.01534446284125195</v>
       </c>
       <c r="C36">
-        <v>0.004823915223063091</v>
+        <v>0.0062934838229584</v>
       </c>
       <c r="D36">
-        <v>-0.01094323293150276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01386840586661716</v>
+      </c>
+      <c r="E36">
+        <v>0.01902222732638882</v>
+      </c>
+      <c r="F36">
+        <v>-0.01100832699359769</v>
+      </c>
+      <c r="G36">
+        <v>-0.09478953791475876</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03204283836816443</v>
+        <v>-0.03009537587788739</v>
       </c>
       <c r="C38">
-        <v>0.02334895580355815</v>
+        <v>0.02459045769384956</v>
       </c>
       <c r="D38">
-        <v>0.008654474438997559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006198981265892428</v>
+      </c>
+      <c r="E38">
+        <v>0.01923553138533505</v>
+      </c>
+      <c r="F38">
+        <v>-0.01526994483836013</v>
+      </c>
+      <c r="G38">
+        <v>-0.09046628839516452</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03237460485085981</v>
+        <v>-0.03620091777373525</v>
       </c>
       <c r="C39">
-        <v>0.08562387324528309</v>
+        <v>0.07567754411017008</v>
       </c>
       <c r="D39">
-        <v>-0.01860695228810951</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.013738350670754</v>
+      </c>
+      <c r="E39">
+        <v>0.04318754314180502</v>
+      </c>
+      <c r="F39">
+        <v>0.01576436058453444</v>
+      </c>
+      <c r="G39">
+        <v>-0.09100953980295448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01598030052393888</v>
+        <v>-0.0157220523269619</v>
       </c>
       <c r="C40">
-        <v>0.02552706314140918</v>
+        <v>0.03278686739464851</v>
       </c>
       <c r="D40">
-        <v>-0.01321752229633084</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01586981220944757</v>
+      </c>
+      <c r="E40">
+        <v>0.03365502443005388</v>
+      </c>
+      <c r="F40">
+        <v>-0.03011226966844793</v>
+      </c>
+      <c r="G40">
+        <v>-0.1141190862012347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01041247884154383</v>
+        <v>-0.01892667252610708</v>
       </c>
       <c r="C41">
-        <v>-0.001732720574216109</v>
+        <v>-0.001771728450214183</v>
       </c>
       <c r="D41">
-        <v>-0.002155863667289123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005785716622277171</v>
+      </c>
+      <c r="E41">
+        <v>0.015823040406708</v>
+      </c>
+      <c r="F41">
+        <v>-0.01713440945844112</v>
+      </c>
+      <c r="G41">
+        <v>-0.08988689536333946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01033180981243321</v>
+        <v>-0.004356452422935225</v>
       </c>
       <c r="C42">
-        <v>0.0365677255146761</v>
+        <v>0.0269436046382045</v>
       </c>
       <c r="D42">
-        <v>-0.0934802093367325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08354059049012526</v>
+      </c>
+      <c r="E42">
+        <v>-0.01146290159212263</v>
+      </c>
+      <c r="F42">
+        <v>-0.03049479337825103</v>
+      </c>
+      <c r="G42">
+        <v>0.02288190254194928</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02937362412667542</v>
+        <v>-0.03336267525260057</v>
       </c>
       <c r="C43">
-        <v>0.01070015747534664</v>
+        <v>0.01207640514864483</v>
       </c>
       <c r="D43">
-        <v>-0.002006288859619422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007472403208898827</v>
+      </c>
+      <c r="E43">
+        <v>0.03438586246238397</v>
+      </c>
+      <c r="F43">
+        <v>-0.01495464009889536</v>
+      </c>
+      <c r="G43">
+        <v>-0.1159070984818837</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01816287528620102</v>
+        <v>-0.01373006976188631</v>
       </c>
       <c r="C44">
-        <v>0.05580115976039558</v>
+        <v>0.05104306171890834</v>
       </c>
       <c r="D44">
-        <v>-0.009901756186120178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008850788299378699</v>
+      </c>
+      <c r="E44">
+        <v>0.03846267878792874</v>
+      </c>
+      <c r="F44">
+        <v>-0.01966008779885805</v>
+      </c>
+      <c r="G44">
+        <v>-0.1170365233001741</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0002960491186071866</v>
+        <v>-0.009754631691722982</v>
       </c>
       <c r="C46">
-        <v>0.01053499336710617</v>
+        <v>0.01546998992463622</v>
       </c>
       <c r="D46">
-        <v>-0.01260252931435406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01361966009173206</v>
+      </c>
+      <c r="E46">
+        <v>0.00482568401138421</v>
+      </c>
+      <c r="F46">
+        <v>-0.01778670136687868</v>
+      </c>
+      <c r="G46">
+        <v>-0.1110448156139599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06846720004045306</v>
+        <v>-0.08286018988075543</v>
       </c>
       <c r="C47">
-        <v>0.06760511560275483</v>
+        <v>0.07119440144567316</v>
       </c>
       <c r="D47">
-        <v>0.0001724552237610846</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004856557386281234</v>
+      </c>
+      <c r="E47">
+        <v>-0.008478633831141483</v>
+      </c>
+      <c r="F47">
+        <v>-0.04360615249118214</v>
+      </c>
+      <c r="G47">
+        <v>-0.08581673942374109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01072607309078231</v>
+        <v>-0.01729492944128541</v>
       </c>
       <c r="C48">
-        <v>0.009496789013417819</v>
+        <v>0.0114068307075233</v>
       </c>
       <c r="D48">
-        <v>-0.001213386910999864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003482809711117676</v>
+      </c>
+      <c r="E48">
+        <v>0.01297871896253962</v>
+      </c>
+      <c r="F48">
+        <v>-0.02332078431693533</v>
+      </c>
+      <c r="G48">
+        <v>-0.1069255104006224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.074638777580912</v>
+        <v>-0.07697691468816155</v>
       </c>
       <c r="C50">
-        <v>0.06367898328366062</v>
+        <v>0.06750831149594219</v>
       </c>
       <c r="D50">
-        <v>0.0005937658507856253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001202893938046149</v>
+      </c>
+      <c r="E50">
+        <v>-0.001591608925338235</v>
+      </c>
+      <c r="F50">
+        <v>-0.04280374379035966</v>
+      </c>
+      <c r="G50">
+        <v>-0.095928628147645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01780841243079308</v>
+        <v>-0.01162516395754712</v>
       </c>
       <c r="C51">
-        <v>0.03923541675382203</v>
+        <v>0.03042512802230305</v>
       </c>
       <c r="D51">
-        <v>-0.01095172569199363</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01245511092271777</v>
+      </c>
+      <c r="E51">
+        <v>0.04119714114576094</v>
+      </c>
+      <c r="F51">
+        <v>0.006988373084204125</v>
+      </c>
+      <c r="G51">
+        <v>-0.1103692202129368</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09661806625112146</v>
+        <v>-0.08496317736779078</v>
       </c>
       <c r="C53">
-        <v>0.07680538666099841</v>
+        <v>0.08506254399284</v>
       </c>
       <c r="D53">
-        <v>0.00160831690296856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003670156467880447</v>
+      </c>
+      <c r="E53">
+        <v>-0.02985312864245934</v>
+      </c>
+      <c r="F53">
+        <v>-0.04744936241166556</v>
+      </c>
+      <c r="G53">
+        <v>-0.08861629244365621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02840472071524738</v>
+        <v>-0.03186700056883626</v>
       </c>
       <c r="C54">
-        <v>0.005137900469176608</v>
+        <v>0.01358642001877564</v>
       </c>
       <c r="D54">
-        <v>0.00524931642867772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0004561352913389419</v>
+      </c>
+      <c r="E54">
+        <v>0.02722217241049563</v>
+      </c>
+      <c r="F54">
+        <v>-0.01389487403977072</v>
+      </c>
+      <c r="G54">
+        <v>-0.1108756865882974</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07296581250303714</v>
+        <v>-0.07964822441832327</v>
       </c>
       <c r="C55">
-        <v>0.06605933041160139</v>
+        <v>0.06732735120715989</v>
       </c>
       <c r="D55">
-        <v>0.001025560451025034</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005784047057225256</v>
+      </c>
+      <c r="E55">
+        <v>-0.03246964523124758</v>
+      </c>
+      <c r="F55">
+        <v>-0.04703220579069878</v>
+      </c>
+      <c r="G55">
+        <v>-0.06626836477091742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1477666991352356</v>
+        <v>-0.1407165291705617</v>
       </c>
       <c r="C56">
-        <v>0.09978493904447179</v>
+        <v>0.1048565716850962</v>
       </c>
       <c r="D56">
-        <v>0.01063456535689384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01301527750428414</v>
+      </c>
+      <c r="E56">
+        <v>-0.03978229261109364</v>
+      </c>
+      <c r="F56">
+        <v>-0.05712727910582874</v>
+      </c>
+      <c r="G56">
+        <v>-0.05176308243463294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009371218906411809</v>
+        <v>-0.003507832193716287</v>
       </c>
       <c r="C57">
-        <v>0.004573112558421329</v>
+        <v>0.003543117337414785</v>
       </c>
       <c r="D57">
-        <v>-0.0217506418707945</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0229354473862215</v>
+      </c>
+      <c r="E57">
+        <v>0.02464275342550693</v>
+      </c>
+      <c r="F57">
+        <v>-0.003141710833481239</v>
+      </c>
+      <c r="G57">
+        <v>-0.01222849294450912</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04357705869813542</v>
+        <v>-0.03768023900200993</v>
       </c>
       <c r="C58">
-        <v>0.06874835567124019</v>
+        <v>0.03412236452063742</v>
       </c>
       <c r="D58">
-        <v>-0.005229414242180846</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03649482068290412</v>
+      </c>
+      <c r="E58">
+        <v>0.720696804500135</v>
+      </c>
+      <c r="F58">
+        <v>-0.5842623106617809</v>
+      </c>
+      <c r="G58">
+        <v>0.3077685292542033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1570644820045214</v>
+        <v>-0.1531145380965382</v>
       </c>
       <c r="C59">
-        <v>-0.2153136996948851</v>
+        <v>-0.2055026889281785</v>
       </c>
       <c r="D59">
-        <v>0.05601177854037669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01015329213155898</v>
+      </c>
+      <c r="E59">
+        <v>0.02172274971381381</v>
+      </c>
+      <c r="F59">
+        <v>-0.01547519400612196</v>
+      </c>
+      <c r="G59">
+        <v>-0.04069586912351623</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3059919644219008</v>
+        <v>-0.2857974116228562</v>
       </c>
       <c r="C60">
-        <v>0.1058958696240753</v>
+        <v>0.1025157609512708</v>
       </c>
       <c r="D60">
-        <v>0.003345973113909277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01803250534063462</v>
+      </c>
+      <c r="E60">
+        <v>0.131877578085574</v>
+      </c>
+      <c r="F60">
+        <v>0.3071488289479389</v>
+      </c>
+      <c r="G60">
+        <v>0.1606809343807195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03013527207706564</v>
+        <v>-0.03839008798995953</v>
       </c>
       <c r="C61">
-        <v>0.06530552751975534</v>
+        <v>0.06280464079406978</v>
       </c>
       <c r="D61">
-        <v>-0.009832450422016149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007418668091147403</v>
+      </c>
+      <c r="E61">
+        <v>0.03826947035381965</v>
+      </c>
+      <c r="F61">
+        <v>0.005686285240956459</v>
+      </c>
+      <c r="G61">
+        <v>-0.08831626351943281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01267970536692937</v>
+        <v>-0.01457265137034797</v>
       </c>
       <c r="C63">
-        <v>0.02874258989187286</v>
+        <v>0.02639418216211451</v>
       </c>
       <c r="D63">
-        <v>-0.01038604739406901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009352304546319488</v>
+      </c>
+      <c r="E63">
+        <v>0.01183290296495909</v>
+      </c>
+      <c r="F63">
+        <v>-0.01331802791194099</v>
+      </c>
+      <c r="G63">
+        <v>-0.08750049779376574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04553472851426779</v>
+        <v>-0.04982909981799502</v>
       </c>
       <c r="C64">
-        <v>0.03490807017903775</v>
+        <v>0.04737069263921924</v>
       </c>
       <c r="D64">
-        <v>-0.005200952578507445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006397668583952862</v>
+      </c>
+      <c r="E64">
+        <v>0.008372395689020349</v>
+      </c>
+      <c r="F64">
+        <v>0.002687619895131878</v>
+      </c>
+      <c r="G64">
+        <v>-0.09535708200088806</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07747453876365215</v>
+        <v>-0.07093571987989522</v>
       </c>
       <c r="C65">
-        <v>0.06863958547552179</v>
+        <v>0.05020687362643862</v>
       </c>
       <c r="D65">
-        <v>-0.01707647290097614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01904895392492448</v>
+      </c>
+      <c r="E65">
+        <v>0.0625989730886586</v>
+      </c>
+      <c r="F65">
+        <v>0.007755392929590392</v>
+      </c>
+      <c r="G65">
+        <v>-0.038085316243886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05159340544855357</v>
+        <v>-0.04774367457975219</v>
       </c>
       <c r="C66">
-        <v>0.1263992165927716</v>
+        <v>0.1022610199703122</v>
       </c>
       <c r="D66">
-        <v>-0.02200015566677248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01449743561864287</v>
+      </c>
+      <c r="E66">
+        <v>0.06570573622475724</v>
+      </c>
+      <c r="F66">
+        <v>0.02128950277420281</v>
+      </c>
+      <c r="G66">
+        <v>-0.0946109691559297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06111000083144394</v>
+        <v>-0.05339948093444973</v>
       </c>
       <c r="C67">
-        <v>0.02639151426679524</v>
+        <v>0.03011460434142786</v>
       </c>
       <c r="D67">
-        <v>0.008844041813895099</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005431256177051423</v>
+      </c>
+      <c r="E67">
+        <v>0.005662681171532838</v>
+      </c>
+      <c r="F67">
+        <v>-0.01079727556944636</v>
+      </c>
+      <c r="G67">
+        <v>-0.07718055156714748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1255868779074835</v>
+        <v>-0.1561883454994579</v>
       </c>
       <c r="C68">
-        <v>-0.2745115862985308</v>
+        <v>-0.2722747170169369</v>
       </c>
       <c r="D68">
-        <v>0.04093420932026866</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005743770194801862</v>
+      </c>
+      <c r="E68">
+        <v>-0.005397415081664279</v>
+      </c>
+      <c r="F68">
+        <v>-0.04469817103348214</v>
+      </c>
+      <c r="G68">
+        <v>-0.02080154655175643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.07823308347926257</v>
+        <v>-0.08356973072599511</v>
       </c>
       <c r="C69">
-        <v>0.06257101443822208</v>
+        <v>0.07332049173845066</v>
       </c>
       <c r="D69">
-        <v>0.006312689081083166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008279579824634703</v>
+      </c>
+      <c r="E69">
+        <v>-0.01381585017338384</v>
+      </c>
+      <c r="F69">
+        <v>-0.02086660926391173</v>
+      </c>
+      <c r="G69">
+        <v>-0.1011510521655265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1310568320535197</v>
+        <v>-0.1422954042748526</v>
       </c>
       <c r="C71">
-        <v>-0.2211893254401588</v>
+        <v>-0.2334245790374361</v>
       </c>
       <c r="D71">
-        <v>0.04537351436362919</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002640625077388063</v>
+      </c>
+      <c r="E71">
+        <v>0.02369554984185063</v>
+      </c>
+      <c r="F71">
+        <v>-0.03795077579040072</v>
+      </c>
+      <c r="G71">
+        <v>-0.06413732690142791</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06737355391038698</v>
+        <v>-0.08534361950056243</v>
       </c>
       <c r="C72">
-        <v>0.06860472873125982</v>
+        <v>0.06214688388849197</v>
       </c>
       <c r="D72">
-        <v>0.005127665053905164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007064177949305118</v>
+      </c>
+      <c r="E72">
+        <v>0.00684437385540064</v>
+      </c>
+      <c r="F72">
+        <v>0.02300376762147353</v>
+      </c>
+      <c r="G72">
+        <v>-0.08387988379433306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4270359195436041</v>
+        <v>-0.3707262680920579</v>
       </c>
       <c r="C73">
-        <v>0.1245099172036694</v>
+        <v>0.09463573867181688</v>
       </c>
       <c r="D73">
-        <v>0.01091060738900787</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0309886924071035</v>
+      </c>
+      <c r="E73">
+        <v>0.2866996497957554</v>
+      </c>
+      <c r="F73">
+        <v>0.5341924879389011</v>
+      </c>
+      <c r="G73">
+        <v>0.324354224418206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1119450132810682</v>
+        <v>-0.1079571960918248</v>
       </c>
       <c r="C74">
-        <v>0.1234269111614314</v>
+        <v>0.1050706887623566</v>
       </c>
       <c r="D74">
-        <v>0.001041157659951186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009449305578889419</v>
+      </c>
+      <c r="E74">
+        <v>-0.01267293456357248</v>
+      </c>
+      <c r="F74">
+        <v>-0.05891960659561289</v>
+      </c>
+      <c r="G74">
+        <v>-0.07149765864468342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2520780457009876</v>
+        <v>-0.2513441733246202</v>
       </c>
       <c r="C75">
-        <v>0.142261067825986</v>
+        <v>0.1501041414163042</v>
       </c>
       <c r="D75">
-        <v>0.02417170343756399</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03234000450025464</v>
+      </c>
+      <c r="E75">
+        <v>-0.1052109145938983</v>
+      </c>
+      <c r="F75">
+        <v>-0.1301431718826071</v>
+      </c>
+      <c r="G75">
+        <v>-0.01696326817127525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.11910393639454</v>
+        <v>-0.1212679334764274</v>
       </c>
       <c r="C76">
-        <v>0.1151533845971778</v>
+        <v>0.1077148112922131</v>
       </c>
       <c r="D76">
-        <v>0.009225443014102655</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01830601072817171</v>
+      </c>
+      <c r="E76">
+        <v>-0.04453390665618841</v>
+      </c>
+      <c r="F76">
+        <v>-0.07977382329578808</v>
+      </c>
+      <c r="G76">
+        <v>-0.06439219555671387</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.06183744186754597</v>
+        <v>-0.06641002862680544</v>
       </c>
       <c r="C77">
-        <v>0.06630303917415277</v>
+        <v>0.06525783131681877</v>
       </c>
       <c r="D77">
-        <v>-0.01062359824095438</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0104526028227052</v>
+      </c>
+      <c r="E77">
+        <v>0.05327604029672579</v>
+      </c>
+      <c r="F77">
+        <v>-0.04077905819320222</v>
+      </c>
+      <c r="G77">
+        <v>-0.1170984158556962</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04580107441473278</v>
+        <v>-0.04040071578898264</v>
       </c>
       <c r="C78">
-        <v>0.05490408934537676</v>
+        <v>0.05391023072012703</v>
       </c>
       <c r="D78">
-        <v>-0.006648061918572753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009592250577851099</v>
+      </c>
+      <c r="E78">
+        <v>0.05554342110943877</v>
+      </c>
+      <c r="F78">
+        <v>0.02456551442784549</v>
+      </c>
+      <c r="G78">
+        <v>-0.09670829261136277</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.001252207518398179</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.000322433390598448</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.001026973809381811</v>
+      </c>
+      <c r="E79">
+        <v>0.008292707020934537</v>
+      </c>
+      <c r="F79">
+        <v>-0.002091619186034655</v>
+      </c>
+      <c r="G79">
+        <v>-0.009432939543969407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0539887966826586</v>
+        <v>-0.04105343176188899</v>
       </c>
       <c r="C80">
-        <v>0.06367550426826667</v>
+        <v>0.04799455915637262</v>
       </c>
       <c r="D80">
-        <v>-0.01509927169758178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01513932382619739</v>
+      </c>
+      <c r="E80">
+        <v>0.0418939661239314</v>
+      </c>
+      <c r="F80">
+        <v>-0.003920332929491078</v>
+      </c>
+      <c r="G80">
+        <v>-0.0534675191042007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1342655056746237</v>
+        <v>-0.1375992860586331</v>
       </c>
       <c r="C81">
-        <v>0.08428099192059695</v>
+        <v>0.09363343859968001</v>
       </c>
       <c r="D81">
-        <v>0.0106080968776677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01565262756633422</v>
+      </c>
+      <c r="E81">
+        <v>-0.06643927053810643</v>
+      </c>
+      <c r="F81">
+        <v>-0.1047490186576278</v>
+      </c>
+      <c r="G81">
+        <v>-0.03595864995151046</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04647782049856099</v>
+        <v>-0.1681240494671899</v>
       </c>
       <c r="C82">
-        <v>0.03274551527303755</v>
+        <v>0.1200574567989614</v>
       </c>
       <c r="D82">
-        <v>0.0007945596371130051</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01828039286102545</v>
+      </c>
+      <c r="E82">
+        <v>-0.1782155008376353</v>
+      </c>
+      <c r="F82">
+        <v>-0.05246719894234705</v>
+      </c>
+      <c r="G82">
+        <v>-0.02896588048346486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02851576015484271</v>
+        <v>-0.02750683651213353</v>
       </c>
       <c r="C83">
-        <v>0.02139564151152043</v>
+        <v>0.03401673543224885</v>
       </c>
       <c r="D83">
-        <v>-0.00425770880666367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007991046068850696</v>
+      </c>
+      <c r="E83">
+        <v>0.03648187435048936</v>
+      </c>
+      <c r="F83">
+        <v>0.01042463719383815</v>
+      </c>
+      <c r="G83">
+        <v>-0.06251133686135091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2427599677969872</v>
+        <v>-0.2115442341580148</v>
       </c>
       <c r="C85">
-        <v>0.1459355771221948</v>
+        <v>0.1353156202136643</v>
       </c>
       <c r="D85">
-        <v>0.01271524190805896</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01891847113603371</v>
+      </c>
+      <c r="E85">
+        <v>-0.1105076721921707</v>
+      </c>
+      <c r="F85">
+        <v>-0.05641808601717151</v>
+      </c>
+      <c r="G85">
+        <v>0.02717393293470821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01054573049350868</v>
+        <v>-0.0104142897546143</v>
       </c>
       <c r="C86">
-        <v>0.02362057039441987</v>
+        <v>0.02702468763463957</v>
       </c>
       <c r="D86">
-        <v>-0.008814622899220869</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01479405737603525</v>
+      </c>
+      <c r="E86">
+        <v>0.07472937876029251</v>
+      </c>
+      <c r="F86">
+        <v>0.01155868439846389</v>
+      </c>
+      <c r="G86">
+        <v>-0.1726727822580228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01477139272335254</v>
+        <v>-0.0201403378955435</v>
       </c>
       <c r="C87">
-        <v>0.02287671118186006</v>
+        <v>0.01577144801359668</v>
       </c>
       <c r="D87">
-        <v>-0.009603646245680936</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01437831322871523</v>
+      </c>
+      <c r="E87">
+        <v>0.09885005284132685</v>
+      </c>
+      <c r="F87">
+        <v>-0.03592180314280915</v>
+      </c>
+      <c r="G87">
+        <v>-0.1106621309848987</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09221738849225204</v>
+        <v>-0.08935994191404027</v>
       </c>
       <c r="C88">
-        <v>0.06650626620029407</v>
+        <v>0.06400386534232463</v>
       </c>
       <c r="D88">
-        <v>-0.02364854664335947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02288986262613574</v>
+      </c>
+      <c r="E88">
+        <v>0.004035998338447338</v>
+      </c>
+      <c r="F88">
+        <v>-0.02051008025463945</v>
+      </c>
+      <c r="G88">
+        <v>-0.1054820026532351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.223570642181248</v>
+        <v>-0.2232139539693543</v>
       </c>
       <c r="C89">
-        <v>-0.3642266084251778</v>
+        <v>-0.3663495491977419</v>
       </c>
       <c r="D89">
-        <v>0.06832709604191732</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0007169600469188474</v>
+      </c>
+      <c r="E89">
+        <v>-0.02590497143335932</v>
+      </c>
+      <c r="F89">
+        <v>-0.0173847598098658</v>
+      </c>
+      <c r="G89">
+        <v>-0.08752952958853351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1968357078138208</v>
+        <v>-0.204720803856358</v>
       </c>
       <c r="C90">
-        <v>-0.3293522237483715</v>
+        <v>-0.3180161083068615</v>
       </c>
       <c r="D90">
-        <v>0.06623875811126236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004434763349077326</v>
+      </c>
+      <c r="E90">
+        <v>-0.01524656222269546</v>
+      </c>
+      <c r="F90">
+        <v>-0.05191498250383568</v>
+      </c>
+      <c r="G90">
+        <v>-0.05077083325605873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1961652829117276</v>
+        <v>-0.1867597752432117</v>
       </c>
       <c r="C91">
-        <v>0.1231361403156524</v>
+        <v>0.1347972157910942</v>
       </c>
       <c r="D91">
-        <v>0.01780797865004748</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02352329741944916</v>
+      </c>
+      <c r="E91">
+        <v>-0.08835692706962069</v>
+      </c>
+      <c r="F91">
+        <v>-0.1031657331680276</v>
+      </c>
+      <c r="G91">
+        <v>-0.04063794006868886</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1970637774837654</v>
+        <v>-0.1873328890167579</v>
       </c>
       <c r="C92">
-        <v>-0.2512288970084395</v>
+        <v>-0.2701634707295322</v>
       </c>
       <c r="D92">
-        <v>0.09113353952932562</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03935477891581139</v>
+      </c>
+      <c r="E92">
+        <v>0.01167355129673826</v>
+      </c>
+      <c r="F92">
+        <v>-0.06859084978320794</v>
+      </c>
+      <c r="G92">
+        <v>-0.07633252691116088</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.212484306343072</v>
+        <v>-0.2293020876327112</v>
       </c>
       <c r="C93">
-        <v>-0.3100773331957341</v>
+        <v>-0.3146605993323304</v>
       </c>
       <c r="D93">
-        <v>0.07051344381464014</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01036545812169227</v>
+      </c>
+      <c r="E93">
+        <v>0.002401532960505539</v>
+      </c>
+      <c r="F93">
+        <v>-0.03500081431115555</v>
+      </c>
+      <c r="G93">
+        <v>-0.05272202558711275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.270275190887197</v>
+        <v>-0.3339353921885819</v>
       </c>
       <c r="C94">
-        <v>0.1560496803914553</v>
+        <v>0.2000171187153708</v>
       </c>
       <c r="D94">
-        <v>0.003248003411234959</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03005261843143341</v>
+      </c>
+      <c r="E94">
+        <v>-0.390851228863987</v>
+      </c>
+      <c r="F94">
+        <v>-0.3537220947722113</v>
+      </c>
+      <c r="G94">
+        <v>0.376403724374519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06929084299422152</v>
+        <v>-0.08018648944015269</v>
       </c>
       <c r="C95">
-        <v>0.09538533686208621</v>
+        <v>0.08952649773103365</v>
       </c>
       <c r="D95">
-        <v>0.000865552306348228</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.00814897248833403</v>
+      </c>
+      <c r="E95">
+        <v>0.1296747034439131</v>
+      </c>
+      <c r="F95">
+        <v>0.1295141177014784</v>
+      </c>
+      <c r="G95">
+        <v>-0.1379318013659288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2049998626082859</v>
+        <v>-0.1936860371597811</v>
       </c>
       <c r="C98">
-        <v>0.0608583145697956</v>
+        <v>0.04832162384985333</v>
       </c>
       <c r="D98">
-        <v>0.02852620285635245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008716221669948798</v>
+      </c>
+      <c r="E98">
+        <v>0.1395123634316691</v>
+      </c>
+      <c r="F98">
+        <v>0.1979007207277379</v>
+      </c>
+      <c r="G98">
+        <v>0.06239198246470008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01288923560423838</v>
+        <v>-0.007467600754665711</v>
       </c>
       <c r="C101">
-        <v>0.02156754874766244</v>
+        <v>0.01960560133336007</v>
       </c>
       <c r="D101">
-        <v>-0.008815912223006176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01051964728577301</v>
+      </c>
+      <c r="E101">
+        <v>0.01263149554067377</v>
+      </c>
+      <c r="F101">
+        <v>-0.01261414808552246</v>
+      </c>
+      <c r="G101">
+        <v>-0.1013601298179499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1191243995487316</v>
+        <v>-0.1218205020042961</v>
       </c>
       <c r="C102">
-        <v>0.07781139645274286</v>
+        <v>0.09363219914977136</v>
       </c>
       <c r="D102">
-        <v>-0.003954826447217836</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004510647173619696</v>
+      </c>
+      <c r="E102">
+        <v>-0.04878560465447716</v>
+      </c>
+      <c r="F102">
+        <v>-0.02091354128548362</v>
+      </c>
+      <c r="G102">
+        <v>-0.02054300371611456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1055722460691829</v>
+        <v>-0.02000383815604748</v>
       </c>
       <c r="C104">
-        <v>-0.1641985465036634</v>
+        <v>-0.02760894021299333</v>
       </c>
       <c r="D104">
-        <v>-0.9717967093701553</v>
+        <v>-0.9858916767739433</v>
+      </c>
+      <c r="E104">
+        <v>-0.08976631359737247</v>
+      </c>
+      <c r="F104">
+        <v>-0.01873157086852179</v>
+      </c>
+      <c r="G104">
+        <v>0.03711220928676956</v>
       </c>
     </row>
   </sheetData>
